--- a/tspi/ciclo-2/logt2/20105627.xlsx
+++ b/tspi/ciclo-2/logt2/20105627.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="400"/>
   </bookViews>
   <sheets>
     <sheet name="logt1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Pensando y haciendo un borrador para el diagrama de flujo de calendarización</t>
+  </si>
+  <si>
+    <t>Haciendo la presentacion y algoritmo de calendarización</t>
   </si>
 </sst>
 </file>
@@ -75,7 +78,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -90,6 +93,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -157,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -195,6 +205,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,21 +507,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK8"/>
+  <dimension ref="A1:AMK15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1"/>
-    <col min="2" max="3" width="12.140625" style="2"/>
-    <col min="4" max="4" width="16.85546875" style="3"/>
+    <col min="1" max="1" width="12.109375" style="1"/>
+    <col min="2" max="3" width="12.109375" style="2"/>
+    <col min="4" max="4" width="16.88671875" style="3"/>
     <col min="5" max="5" width="11" style="3"/>
-    <col min="6" max="7" width="12.140625" style="4"/>
-    <col min="8" max="8" width="47.7109375" style="5"/>
-    <col min="9" max="1025" width="12.140625" style="4"/>
+    <col min="6" max="7" width="12.109375" style="4"/>
+    <col min="8" max="8" width="47.6640625" style="5"/>
+    <col min="9" max="1025" width="12.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -562,7 +573,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="3">
         <f>SUM(E7:E11)/60</f>
-        <v>5.166666666666667</v>
+        <v>12.916666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -602,16 +613,19 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D7" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>110</v>
+        <v>180</v>
+      </c>
+      <c r="F7" s="4">
+        <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41934</v>
       </c>
@@ -622,17 +636,89 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D8" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="F8" s="4">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="9" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>41936</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D9" s="3">
+        <v>120</v>
+      </c>
+      <c r="E9" s="3">
+        <v>180</v>
+      </c>
+      <c r="F9" s="4">
+        <v>38</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>41937</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>180</v>
+      </c>
+      <c r="F10" s="4">
+        <v>42</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>41937</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3">
+        <v>95</v>
+      </c>
+      <c r="F11" s="4">
+        <v>38</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -644,7 +730,7 @@
     <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
